--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H2">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.140304</v>
+        <v>1.234379333333333</v>
       </c>
       <c r="N2">
-        <v>3.420912</v>
+        <v>3.703138</v>
       </c>
       <c r="O2">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="P2">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="Q2">
-        <v>65.04894614116802</v>
+        <v>44.0859673383009</v>
       </c>
       <c r="R2">
-        <v>585.4405152705122</v>
+        <v>396.7737060447081</v>
       </c>
       <c r="S2">
-        <v>0.06555999841385193</v>
+        <v>0.03417378683508802</v>
       </c>
       <c r="T2">
-        <v>0.06555999841385192</v>
+        <v>0.03417378683508802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H3">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.750722</v>
       </c>
       <c r="O3">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="P3">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="Q3">
-        <v>109.350490644258</v>
+        <v>68.46251537578357</v>
       </c>
       <c r="R3">
-        <v>984.154415798322</v>
+        <v>616.1626383820521</v>
       </c>
       <c r="S3">
-        <v>0.1102095947509037</v>
+        <v>0.05306957174586825</v>
       </c>
       <c r="T3">
-        <v>0.1102095947509037</v>
+        <v>0.05306957174586826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H4">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I4">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J4">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9175653333333335</v>
+        <v>1.411497</v>
       </c>
       <c r="N4">
-        <v>2.752696</v>
+        <v>4.234491</v>
       </c>
       <c r="O4">
-        <v>0.2118889363825002</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="P4">
-        <v>0.2118889363825001</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="Q4">
-        <v>52.34275942994401</v>
+        <v>50.41174050773401</v>
       </c>
       <c r="R4">
-        <v>471.0848348694961</v>
+        <v>453.7056645696061</v>
       </c>
       <c r="S4">
-        <v>0.05275398647899056</v>
+        <v>0.03907728871813546</v>
       </c>
       <c r="T4">
-        <v>0.05275398647899055</v>
+        <v>0.03907728871813547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H5">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I5">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J5">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3556303333333333</v>
+        <v>0.45908</v>
       </c>
       <c r="N5">
-        <v>1.066891</v>
+        <v>1.37724</v>
       </c>
       <c r="O5">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="P5">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="Q5">
-        <v>20.287027318299</v>
+        <v>16.39608290509334</v>
       </c>
       <c r="R5">
-        <v>182.583245864691</v>
+        <v>147.56474614584</v>
       </c>
       <c r="S5">
-        <v>0.02044641085995573</v>
+        <v>0.01270962793737544</v>
       </c>
       <c r="T5">
-        <v>0.02044641085995573</v>
+        <v>0.01270962793737545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H6">
         <v>162.270569</v>
       </c>
       <c r="I6">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J6">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.140304</v>
+        <v>1.234379333333333</v>
       </c>
       <c r="N6">
-        <v>3.420912</v>
+        <v>3.703138</v>
       </c>
       <c r="O6">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="P6">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="Q6">
-        <v>61.67925963765866</v>
+        <v>66.76781226061355</v>
       </c>
       <c r="R6">
-        <v>555.113336738928</v>
+        <v>600.910310345522</v>
       </c>
       <c r="S6">
-        <v>0.06216383821556336</v>
+        <v>0.05175590151238638</v>
       </c>
       <c r="T6">
-        <v>0.06216383821556336</v>
+        <v>0.05175590151238638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H7">
         <v>162.270569</v>
       </c>
       <c r="I7">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J7">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>5.750722</v>
       </c>
       <c r="O7">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="P7">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="Q7">
         <v>103.6858812334242</v>
       </c>
       <c r="R7">
-        <v>933.1729311008178</v>
+        <v>933.1729311008179</v>
       </c>
       <c r="S7">
-        <v>0.1045004817518489</v>
+        <v>0.08037340262693793</v>
       </c>
       <c r="T7">
-        <v>0.1045004817518489</v>
+        <v>0.08037340262693793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H8">
         <v>162.270569</v>
       </c>
       <c r="I8">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J8">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9175653333333335</v>
+        <v>1.411497</v>
       </c>
       <c r="N8">
-        <v>2.752696</v>
+        <v>4.234491</v>
       </c>
       <c r="O8">
-        <v>0.2118889363825002</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="P8">
-        <v>0.2118889363825001</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="Q8">
-        <v>49.63128291155822</v>
+        <v>76.348140443931</v>
       </c>
       <c r="R8">
-        <v>446.681546204024</v>
+        <v>687.133263995379</v>
       </c>
       <c r="S8">
-        <v>0.05002120744428047</v>
+        <v>0.05918221226189425</v>
       </c>
       <c r="T8">
-        <v>0.05002120744428047</v>
+        <v>0.05918221226189425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H9">
         <v>162.270569</v>
       </c>
       <c r="I9">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J9">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3556303333333333</v>
+        <v>0.45908</v>
       </c>
       <c r="N9">
-        <v>1.066891</v>
+        <v>1.37724</v>
       </c>
       <c r="O9">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="P9">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="Q9">
-        <v>19.23611218121988</v>
+        <v>24.83172427217333</v>
       </c>
       <c r="R9">
-        <v>173.125009630979</v>
+        <v>223.48551844956</v>
       </c>
       <c r="S9">
-        <v>0.01938723928520833</v>
+        <v>0.01924862043999414</v>
       </c>
       <c r="T9">
-        <v>0.01938723928520833</v>
+        <v>0.01924862043999414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H10">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I10">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J10">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.140304</v>
+        <v>1.234379333333333</v>
       </c>
       <c r="N10">
-        <v>3.420912</v>
+        <v>3.703138</v>
       </c>
       <c r="O10">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="P10">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="Q10">
-        <v>57.63654404757335</v>
+        <v>125.2314058585502</v>
       </c>
       <c r="R10">
-        <v>518.7288964281601</v>
+        <v>1127.082652726952</v>
       </c>
       <c r="S10">
-        <v>0.05808936132706063</v>
+        <v>0.09707468446882507</v>
       </c>
       <c r="T10">
-        <v>0.05808936132706063</v>
+        <v>0.09707468446882508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H11">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I11">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J11">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.750722</v>
       </c>
       <c r="O11">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="P11">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="Q11">
-        <v>96.88987669321777</v>
+        <v>194.4758744507209</v>
       </c>
       <c r="R11">
-        <v>872.00889023896</v>
+        <v>1750.282870056488</v>
       </c>
       <c r="S11">
-        <v>0.09765108490059864</v>
+        <v>0.1507503969924779</v>
       </c>
       <c r="T11">
-        <v>0.09765108490059865</v>
+        <v>0.1507503969924779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H12">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I12">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J12">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9175653333333335</v>
+        <v>1.411497</v>
       </c>
       <c r="N12">
-        <v>2.752696</v>
+        <v>4.234491</v>
       </c>
       <c r="O12">
-        <v>0.2118889363825002</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="P12">
-        <v>0.2118889363825001</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="Q12">
-        <v>46.37824189969778</v>
+        <v>143.200512923196</v>
       </c>
       <c r="R12">
-        <v>417.4041770972801</v>
+        <v>1288.804616308764</v>
       </c>
       <c r="S12">
-        <v>0.04674260915438763</v>
+        <v>0.1110036616812767</v>
       </c>
       <c r="T12">
-        <v>0.04674260915438763</v>
+        <v>0.1110036616812767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H13">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I13">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J13">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3556303333333333</v>
+        <v>0.45908</v>
       </c>
       <c r="N13">
-        <v>1.066891</v>
+        <v>1.37724</v>
       </c>
       <c r="O13">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="P13">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="Q13">
-        <v>17.97529726443111</v>
+        <v>46.57501324677332</v>
       </c>
       <c r="R13">
-        <v>161.77767537988</v>
+        <v>419.17511922096</v>
       </c>
       <c r="S13">
-        <v>0.01811651886853244</v>
+        <v>0.03610320178125812</v>
       </c>
       <c r="T13">
-        <v>0.01811651886853244</v>
+        <v>0.03610320178125813</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H14">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I14">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J14">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.140304</v>
+        <v>1.234379333333333</v>
       </c>
       <c r="N14">
-        <v>3.420912</v>
+        <v>3.703138</v>
       </c>
       <c r="O14">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="P14">
-        <v>0.263324902255146</v>
+        <v>0.2458010442471192</v>
       </c>
       <c r="Q14">
-        <v>76.90748627548801</v>
+        <v>81.01098128260732</v>
       </c>
       <c r="R14">
-        <v>692.167376479392</v>
+        <v>729.098831543466</v>
       </c>
       <c r="S14">
-        <v>0.0775117042986701</v>
+        <v>0.06279667143081966</v>
       </c>
       <c r="T14">
-        <v>0.07751170429867009</v>
+        <v>0.06279667143081966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H15">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I15">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J15">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.750722</v>
       </c>
       <c r="O15">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="P15">
-        <v>0.4426621639336287</v>
+        <v>0.3817123403920895</v>
       </c>
       <c r="Q15">
-        <v>129.285282196428</v>
+        <v>125.8045561098393</v>
       </c>
       <c r="R15">
-        <v>1163.567539767852</v>
+        <v>1132.241004988554</v>
       </c>
       <c r="S15">
-        <v>0.1303010025302775</v>
+        <v>0.0975189690268054</v>
       </c>
       <c r="T15">
-        <v>0.1303010025302775</v>
+        <v>0.0975189690268054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H16">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I16">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J16">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9175653333333335</v>
+        <v>1.411497</v>
       </c>
       <c r="N16">
-        <v>2.752696</v>
+        <v>4.234491</v>
       </c>
       <c r="O16">
-        <v>0.2118889363825002</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="P16">
-        <v>0.2118889363825001</v>
+        <v>0.2810703542927722</v>
       </c>
       <c r="Q16">
-        <v>61.88493882350401</v>
+        <v>92.63502228174299</v>
       </c>
       <c r="R16">
-        <v>556.964449411536</v>
+        <v>833.715200535687</v>
       </c>
       <c r="S16">
-        <v>0.06237113330484151</v>
+        <v>0.0718071916314658</v>
       </c>
       <c r="T16">
-        <v>0.0623711333048415</v>
+        <v>0.0718071916314658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H17">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I17">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J17">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3556303333333333</v>
+        <v>0.45908</v>
       </c>
       <c r="N17">
-        <v>1.066891</v>
+        <v>1.37724</v>
       </c>
       <c r="O17">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="P17">
-        <v>0.08212399742872513</v>
+        <v>0.09141626106801917</v>
       </c>
       <c r="Q17">
-        <v>23.985388966434</v>
+        <v>30.12892413452</v>
       </c>
       <c r="R17">
-        <v>215.868500697906</v>
+        <v>271.16031721068</v>
       </c>
       <c r="S17">
-        <v>0.02417382841502863</v>
+        <v>0.02335481090939146</v>
       </c>
       <c r="T17">
-        <v>0.02417382841502863</v>
+        <v>0.02335481090939146</v>
       </c>
     </row>
   </sheetData>
